--- a/Doc/dieUhr.xlsx
+++ b/Doc/dieUhr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="268">
   <si>
     <t>KEY</t>
   </si>
@@ -40,7 +40,7 @@
     <t>IntroductionContent</t>
   </si>
   <si>
-    <t>"Um die gewunschte Zeit einzustellen, sollte der Benutzer die Zeiger vorsichtig bewegen.\n\nDie richtige Uhrzeit in der herkommlichen Sprechweise wird dann oben angezeigt.\n\nHinweis: \n\nDiese app sollte am besten als Erganzung im Rahmen eines Deutschunterrichtes benutzt werden.\n\nSie unterstutzt dich dabei die traditionelle Deutsche Uhrzeit richtig zu uben."</t>
+    <t>"Um die gewünschte Zeit einzustellen, sollte der Benutzer die Zeiger vorsichtig bewegen. \n\nDie richtige Uhrzeit in der herkömmlichen Sprechweise wird dann oben angezeigt.\n\nHinweis:\n\nDiese App sollte am besten als Erganzung im Rahmen eines Deutschunterrichtes benutzt werden.\n\nSie hilft dir dabei die traditionelle die Uhrzeiten auf Deutsch zu lernen."</t>
   </si>
   <si>
     <t>"The user should rotate the clockhand carefully in order to let it show the desired time.\n\nThe right traditional time description will be shown in the top. \n\nAdvice: \n\nThis app is best used as an addition in a real german class or tutoring. \n\nIt provides you an assistance to properly practice the traditional german clock system."</t>
@@ -130,38 +130,708 @@
     <t>SubTitle</t>
   </si>
   <si>
-    <t>Die traditionelle Deutsche Uhrzeit</t>
-  </si>
-  <si>
-    <t>A traditional Clock System</t>
-  </si>
-  <si>
-    <t>傳統的德文時間系統</t>
+    <t>Eine App für den Deutschunterricht</t>
+  </si>
+  <si>
+    <t>A German tutoring App.</t>
+  </si>
+  <si>
+    <t>德文學習App.</t>
   </si>
   <si>
     <t>PressContinue</t>
   </si>
   <si>
-    <t>Drücken Sie hier für mehr</t>
-  </si>
-  <si>
-    <t>Press and continue</t>
-  </si>
-  <si>
-    <t>請按繼續</t>
+    <t>Wählen Sie das Thema</t>
+  </si>
+  <si>
+    <t>Choose the topic to enter</t>
+  </si>
+  <si>
+    <t>請選擇主題進入</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Uhr zurücksetzen</t>
+  </si>
+  <si>
+    <t>Reset the clock</t>
+  </si>
+  <si>
+    <t>重置時鐘</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>Ein</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>Zwei</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>兩</t>
+  </si>
+  <si>
+    <t>Drei</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>Vier</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>Fünf</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>Sechs</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>Sieben</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>Acht</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>Neun</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>Zehn</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>十一</t>
+  </si>
+  <si>
+    <t>Zwölf</t>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>十二</t>
+  </si>
+  <si>
+    <t>Dreizehn</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>十三</t>
+  </si>
+  <si>
+    <t>Vierzehn</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>十四</t>
+  </si>
+  <si>
+    <t>Fünfzehn</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>十五</t>
+  </si>
+  <si>
+    <t>Sechzehn</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>十六</t>
+  </si>
+  <si>
+    <t>Siebzehn</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>十七</t>
+  </si>
+  <si>
+    <t>Achtzehn</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>十八</t>
+  </si>
+  <si>
+    <t>Neunzehn</t>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>十九</t>
+  </si>
+  <si>
+    <t>Zwanzig</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>二十</t>
+  </si>
+  <si>
+    <t>Dreißig</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>三十</t>
+  </si>
+  <si>
+    <t>Vierzig</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>四十</t>
+  </si>
+  <si>
+    <t>Fünfzig</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>五十</t>
+  </si>
+  <si>
+    <t>AcknowledgeMarcus</t>
+  </si>
+  <si>
+    <t>Vielen Danke an Marcus Breit und Paula Kersten für die Beratung.</t>
+  </si>
+  <si>
+    <t>Acknowledge to Marcus Breit and Paula Kersten for the consultation.</t>
+  </si>
+  <si>
+    <t>感謝語言指導：Marcus Breit，Paula Kerste。</t>
+  </si>
+  <si>
+    <t>LocationIntroductionContent</t>
+  </si>
+  <si>
+    <t>"Die App verfügt über zwei Modi, einem Übungsmodus und einem Testmodus. Der Übungsmodus stellt die verschiedenen Richtungsangaben vor. Durch Auf- und Abschieben werden verschiedene Bilder und die dazugehörige Richtungsangabe sichtbar.\n\nHinweis:\n\nDiese App sollte am besten als Ergänzung im Rahmen eines Deutschunterrichtes benutzt werden.Sie hilft dir dabei die Richtungsangaben auf Deutsch zu lernen."</t>
+  </si>
+  <si>
+    <t>"The user may slide and see the correct expression of each location in answer mode, and then test them on test mode.\n\nAdvice: \n\nThis app is best used as an addition in a real german class or tutoring. \n\nIt provides you an assistance to properly practice the german location expression."</t>
+  </si>
+  <si>
+    <t>"請了解關於地點的表示方式，然後測試自己的能力。建議：使用這個軟體搭配德文課程學習地點的表達方式。"</t>
+  </si>
+  <si>
+    <t>LocationKey_Straight</t>
+  </si>
+  <si>
+    <t>immer geradeaus gehen</t>
+  </si>
+  <si>
+    <t>go straight</t>
+  </si>
+  <si>
+    <t>直走</t>
+  </si>
+  <si>
+    <t>LocationKey_AlongRiver</t>
+  </si>
+  <si>
+    <t>&lt;das Flussufer&gt; entlang</t>
+  </si>
+  <si>
+    <t>along &lt;the river&gt;</t>
+  </si>
+  <si>
+    <t>沿著&lt;河流&gt;</t>
+  </si>
+  <si>
+    <t>LocationKey_Bridge</t>
+  </si>
+  <si>
+    <t>über &lt;die Brücke&gt;</t>
+  </si>
+  <si>
+    <t>over &lt;die Brucke&gt;</t>
+  </si>
+  <si>
+    <t>過 &lt;橋&gt;</t>
+  </si>
+  <si>
+    <t>LocationKey_CrossStreet</t>
+  </si>
+  <si>
+    <t>gegenüber &lt;der Kirche&gt; (Dativ)</t>
+  </si>
+  <si>
+    <t>the opposite side of &lt;the church&gt;</t>
+  </si>
+  <si>
+    <t>在 &lt;教堂&gt; 對面</t>
+  </si>
+  <si>
+    <t>LocationKey_Intersection</t>
+  </si>
+  <si>
+    <t>bis zur &lt;Kreuzung&gt;</t>
+  </si>
+  <si>
+    <t>until &lt;the intersection&gt;</t>
+  </si>
+  <si>
+    <t>到 &lt;十字路口&gt;</t>
+  </si>
+  <si>
+    <t>LocationKey_Pass</t>
+  </si>
+  <si>
+    <t>an &lt;etwas&gt; vorbei gehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go pass &lt;...&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">行經 &lt;...&gt; </t>
+  </si>
+  <si>
+    <t>LocationKey_RoundAbout</t>
+  </si>
+  <si>
+    <t>um &lt;den Kreisverkehr&gt; herum</t>
+  </si>
+  <si>
+    <t>arround &lt;the roundabout&gt;</t>
+  </si>
+  <si>
+    <t>繞行 &lt;圓環&gt;</t>
+  </si>
+  <si>
+    <t>LocationKey_Through</t>
+  </si>
+  <si>
+    <t>durch &lt;den Park&gt; gehen</t>
+  </si>
+  <si>
+    <t>go through &lt;the park&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穿越 &lt;公園&gt; </t>
+  </si>
+  <si>
+    <t>LocationKey_TurnLeft</t>
+  </si>
+  <si>
+    <t>links abbiegen</t>
+  </si>
+  <si>
+    <t>turn left</t>
+  </si>
+  <si>
+    <t>左轉</t>
+  </si>
+  <si>
+    <t>LocationKey_TurnRight</t>
+  </si>
+  <si>
+    <t>rechts abbiegen</t>
+  </si>
+  <si>
+    <t>turn right</t>
+  </si>
+  <si>
+    <t>右轉</t>
+  </si>
+  <si>
+    <t>LocationKey_ThroughInterception</t>
+  </si>
+  <si>
+    <t>über &lt;die Kreuzung&gt; fahren</t>
+  </si>
+  <si>
+    <t>drive through &lt;the intersection&gt;</t>
+  </si>
+  <si>
+    <t>穿越 &lt;十字路口&gt;</t>
+  </si>
+  <si>
+    <t>ExampleShort</t>
+  </si>
+  <si>
+    <t>z.B.</t>
+  </si>
+  <si>
+    <t>ex.</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>ExampleLong</t>
+  </si>
+  <si>
+    <t>zum Beispiel</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>例句</t>
+  </si>
+  <si>
+    <t>ExampleSentence_Straight</t>
+  </si>
+  <si>
+    <t>Bitte gehe immer geradeaus.\nGehe immer geradeaus.</t>
+  </si>
+  <si>
+    <t>Please go straight.</t>
+  </si>
+  <si>
+    <t>請直走。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_AlongRiver</t>
+  </si>
+  <si>
+    <t>Ich gehe das Flussufer entlang.\nGehe das Flussufer entlang.</t>
+  </si>
+  <si>
+    <t>I walk along the river.\nGo along the river.</t>
+  </si>
+  <si>
+    <t>我沿著河流走。\n沿著河流走。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_Bridge</t>
+  </si>
+  <si>
+    <t>Ich gehe über die Brücke.\nFahre über die Brücke.</t>
+  </si>
+  <si>
+    <t>I walk over the bridge.\nDrive over the bridge.</t>
+  </si>
+  <si>
+    <t>我走過橋。\n開過橋。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_CrossStreet</t>
+  </si>
+  <si>
+    <t>Das Auto steht gegenüber der Kirche. (Dativ Satz)\nDie Post ist gegenüber der Kirche. (Dativ Satz)</t>
+  </si>
+  <si>
+    <t>The car stands at the oppsite side of the church.\nThe post ist at the opposite side of the church.</t>
+  </si>
+  <si>
+    <t>汽車就在教堂的對面。\n郵局就在教堂的對面。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_Intersection</t>
+  </si>
+  <si>
+    <t>Fahre bis zur Kreuzung.</t>
+  </si>
+  <si>
+    <t>Drive until the intersection.</t>
+  </si>
+  <si>
+    <t>開到十字路口。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_Pass</t>
+  </si>
+  <si>
+    <t>Ich gehe am Park vorbei. (Dativ Satz)\nGehe am Park vorbei. (Dativ Satz)\nGehe an der Post vorbei. (Dativ Satz)</t>
+  </si>
+  <si>
+    <t>I go pass the park.\nGo pass the park.\nGo pass the post.</t>
+  </si>
+  <si>
+    <t>我行經公園。經過公園。經過郵局。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_RoundAbout</t>
+  </si>
+  <si>
+    <t>Ich fahre um den Kreisverkehr herum.</t>
+  </si>
+  <si>
+    <t>I drive arond the roundabout.</t>
+  </si>
+  <si>
+    <t>我繞著圓環開。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_Through</t>
+  </si>
+  <si>
+    <t>Gehe durch den Wald.\nGehe durch das Stadtzentrum.\nGehe durch den Park.</t>
+  </si>
+  <si>
+    <t>Go through the forest.\nGo through the city center.\nGo through the park.</t>
+  </si>
+  <si>
+    <t>穿越這片樹林。\n穿越城市廣場。\n穿越公園。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_TurnLeft</t>
+  </si>
+  <si>
+    <t>In Straße biegst du links ab.\nEr hat links bis zur Ampel abgebogen.</t>
+  </si>
+  <si>
+    <t>You turn left at street.\nHe turned left until the signal.</t>
+  </si>
+  <si>
+    <t>在街口左轉。\n他在紅綠燈左轉。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_TurnRight</t>
+  </si>
+  <si>
+    <t>Biegen Sie dort rechts ab.\nBis zur Kreuzung hat er rechts abgebogen.</t>
+  </si>
+  <si>
+    <t>Turn right here.\nHe turned right at the intersection.</t>
+  </si>
+  <si>
+    <t>在那裏右轉。他到十字路口右轉。</t>
+  </si>
+  <si>
+    <t>ExampleSentence_ThroughInterception</t>
+  </si>
+  <si>
+    <t>Fahre über die Kreuzung.</t>
+  </si>
+  <si>
+    <t>Drive through the intersection.</t>
+  </si>
+  <si>
+    <t>開過十字路口</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_0</t>
+  </si>
+  <si>
+    <t>Ich fahre um &lt;time&gt; ins Büro.</t>
+  </si>
+  <si>
+    <t>I drive to office at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>我在&lt;time&gt;到辦公室。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_1</t>
+  </si>
+  <si>
+    <t>Wir essen Mittagessen um &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>We eat lunch at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>我們在&lt;time&gt;吃午餐。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_2</t>
+  </si>
+  <si>
+    <t>Er kauft um &lt;time&gt; ein.</t>
+  </si>
+  <si>
+    <t>He do grocery at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>他在&lt;time&gt;購物。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_3</t>
+  </si>
+  <si>
+    <t>Sie gehen um &lt;time&gt; ins Kino.</t>
+  </si>
+  <si>
+    <t>They will watch movie at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>他們在&lt;time&gt;要去看電影。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_4</t>
+  </si>
+  <si>
+    <t>Ich gehe um &lt;time&gt; zum Sport.</t>
+  </si>
+  <si>
+    <t>I go sport at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>我在&lt;time&gt;去運動。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_5</t>
+  </si>
+  <si>
+    <t>Wir treffen uns um &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>We meet at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>我們在&lt;time&gt;見。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_6</t>
+  </si>
+  <si>
+    <t>Heute fliege ich um &lt;time&gt; ab.</t>
+  </si>
+  <si>
+    <t>Today I depart at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>今天我飛機&lt;time&gt;飛。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_7</t>
+  </si>
+  <si>
+    <t>Wir kommen um &lt;time&gt; an.</t>
+  </si>
+  <si>
+    <t>We come at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>我們會在&lt;time&gt;到。</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_8</t>
+  </si>
+  <si>
+    <t>Kannst du mich um &lt;time&gt; abholen?</t>
+  </si>
+  <si>
+    <t>Can you pick me up at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>你能在&lt;time&gt;接我嗎？</t>
+  </si>
+  <si>
+    <t>ClockExampleKey_9</t>
+  </si>
+  <si>
+    <t>Hast du heute um &lt;time&gt; Zeit?</t>
+  </si>
+  <si>
+    <t>Do you have time today at &lt;time&gt;.</t>
+  </si>
+  <si>
+    <t>你今天&lt;time&gt;有空嗎？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="'Arial'"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,12 +852,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,6 +886,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.86"/>
+    <col customWidth="1" min="2" max="2" width="26.43"/>
+    <col customWidth="1" min="3" max="3" width="25.71"/>
+    <col customWidth="1" min="4" max="4" width="31.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -395,12 +1080,997 @@
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
